--- a/sheets/nn.xlsx
+++ b/sheets/nn.xlsx
@@ -13138,8 +13138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1294" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1331" activeCellId="11" sqref="A1298:XFD1298 A1301:XFD1301 A1304:XFD1304 A1307:XFD1307 A1310:XFD1310 A1313:XFD1313 A1316:XFD1316 A1319:XFD1319 A1322:XFD1322 A1325:XFD1325 A1328:XFD1328 A1331:XFD1331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/sheets/nn.xlsx
+++ b/sheets/nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a02c4a7808a1f27/Desktop/newStuff/Danalysis/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_A8F5E4D27A8AB6F54BA611390106C4B94C9F23E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{769D4491-91C1-4AFC-A3CD-EC7309D76AEC}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_A8F5E4D27A8AB6F54BA611390106C4B94C9F23E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{863F8013-26AC-4AD8-B92C-DB6AA017CF92}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12842,10 +12842,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sr.No." dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Element Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Period" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unit" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Decimals" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fact Value" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Period" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unit" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Decimals" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fact Value" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13138,16 +13138,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2224"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1294" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1331" activeCellId="11" sqref="A1298:XFD1298 A1301:XFD1301 A1304:XFD1304 A1307:XFD1307 A1310:XFD1310 A1313:XFD1313 A1316:XFD1316 A1319:XFD1319 A1322:XFD1322 A1325:XFD1325 A1328:XFD1328 A1331:XFD1331"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1532" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B1548" sqref="B1548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="7.05859375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="137.234375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.41015625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45.3515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.3515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5859375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.52734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="73.9375" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.1171875" style="2" customWidth="1"/>

--- a/sheets/nn.xlsx
+++ b/sheets/nn.xlsx
@@ -12842,10 +12842,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sr.No." dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Element Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Period" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unit" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Decimals" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fact Value" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Period" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unit" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Decimals" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fact Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13138,8 +13138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2224"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1532" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B1548" sqref="B1548"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1476" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D1494" sqref="D1494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
